--- a/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
+++ b/InputData/indst/PPRiFUfERoIF/Pot Perc Reduction in Fuel Use from Early Retirement.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/indst/pprifuferoif/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/indst/pprifuferoif/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE16A9DF-0C59-4442-9172-0DB012E5F996}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFDCBAA-726D-1D43-A797-6230BE88D957}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="920" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4240" yWindow="1180" windowWidth="23580" windowHeight="15340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
